--- a/data/trans_orig/P04A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04A-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5927</v>
+        <v>4052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001705885220530079</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01014587974932657</v>
+        <v>0.006935904091928646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3075</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9232</v>
+        <v>9107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003334393608817843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001030287196815686</v>
+        <v>0.001038108200846669</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01000891768548078</v>
+        <v>0.009874047135675065</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4072</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1146</v>
+        <v>993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10849</v>
+        <v>9186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002702933098894338</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007609186048224675</v>
+        <v>0.0006591765436988547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007201276817102326</v>
+        <v>0.006097571886731415</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8261</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3669</v>
+        <v>3911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16302</v>
+        <v>16340</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01414132419875351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006280264764106907</v>
+        <v>0.006695504316383739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02790683485405695</v>
+        <v>0.02797241366118699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -836,19 +836,19 @@
         <v>5568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1850</v>
+        <v>1980</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13681</v>
+        <v>13667</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006036792340089614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002006058208344578</v>
+        <v>0.002146424517807742</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0148330971845574</v>
+        <v>0.01481820362149988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -857,19 +857,19 @@
         <v>13828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7221</v>
+        <v>7664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23477</v>
+        <v>24025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009179356331144032</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004793597248605406</v>
+        <v>0.005087170753063977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01558408101493685</v>
+        <v>0.01594778186244356</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10958</v>
+        <v>9096</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002833528328487101</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01875855624870224</v>
+        <v>0.0155717372993036</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8345</v>
+        <v>7604</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002411095920221792</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009047528769542989</v>
+        <v>0.008244705330010217</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -928,19 +928,19 @@
         <v>3879</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10719</v>
+        <v>10688</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002574895742101672</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006201708859476504</v>
+        <v>0.0006222981213168764</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007115111126863795</v>
+        <v>0.007094655404283823</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>122611</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103077</v>
+        <v>99983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145524</v>
+        <v>144373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2099003610409657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1764586590176229</v>
+        <v>0.171162634896186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2491252295602761</v>
+        <v>0.2471540735521099</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -978,19 +978,19 @@
         <v>141992</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121866</v>
+        <v>119340</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165393</v>
+        <v>166110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1539490639477669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.132128167910717</v>
+        <v>0.1293890872950479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1793199001580598</v>
+        <v>0.180098123711126</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -999,19 +999,19 @@
         <v>264604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>236168</v>
+        <v>232795</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>295504</v>
+        <v>299037</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1756443986770528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1567687750076395</v>
+        <v>0.1545296032843172</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1961560128118044</v>
+        <v>0.1985009849515529</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>450617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424988</v>
+        <v>429837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470070</v>
+        <v>474022</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7714189012112637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7275429882302639</v>
+        <v>0.7358453450087452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8047207139560902</v>
+        <v>0.8114855754761287</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>753</v>
@@ -1049,19 +1049,19 @@
         <v>769474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>744085</v>
+        <v>744794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>790633</v>
+        <v>793454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8342686541831038</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8067419270206176</v>
+        <v>0.8075113815850359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8572102489325085</v>
+        <v>0.8602687766896051</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1212</v>
@@ -1070,19 +1070,19 @@
         <v>1220091</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1186505</v>
+        <v>1184701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1250344</v>
+        <v>1252300</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8098984161508072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7876040514165422</v>
+        <v>0.7864063872519802</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8299806085177228</v>
+        <v>0.8312787848094518</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>6029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2233</v>
+        <v>2273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13450</v>
+        <v>12143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005593381833662339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002071812684407237</v>
+        <v>0.002108770448983748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01247795781956718</v>
+        <v>0.01126548727276251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1195,19 +1195,19 @@
         <v>5763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1949</v>
+        <v>2075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12529</v>
+        <v>11842</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005449403820834425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001843228930088037</v>
+        <v>0.001961928761768488</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01184759890634056</v>
+        <v>0.01119769081902981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1216,19 +1216,19 @@
         <v>11792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6657</v>
+        <v>5776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20281</v>
+        <v>19527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005522079063245857</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003117278143830145</v>
+        <v>0.002704946088422792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009497429764294499</v>
+        <v>0.009144354916964317</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>11192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5400</v>
+        <v>5170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19813</v>
+        <v>20647</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01038341178422335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005010214834694741</v>
+        <v>0.004796848872814907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01838164128075239</v>
+        <v>0.01915497494084909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1266,19 +1266,19 @@
         <v>3660</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>978</v>
+        <v>894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9275</v>
+        <v>9238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00346132235344366</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0009249566197456031</v>
+        <v>0.0008455813223112675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008770160331359174</v>
+        <v>0.008735687270364357</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1287,19 +1287,19 @@
         <v>14853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8164</v>
+        <v>8357</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25326</v>
+        <v>24201</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006955359515748391</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003823330728173516</v>
+        <v>0.003913394576409607</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01185985925092127</v>
+        <v>0.01133289018361665</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>4506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9987</v>
+        <v>10150</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004179966511314097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001630625516433491</v>
+        <v>0.001639549816895365</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009265529511319103</v>
+        <v>0.009416192208868784</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1340,16 +1340,16 @@
         <v>1016</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11232</v>
+        <v>11729</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004330115517022137</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0009611242119820025</v>
+        <v>0.0009610259165828735</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01062073103258673</v>
+        <v>0.01109110584065668</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1358,19 +1358,19 @@
         <v>9085</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4500</v>
+        <v>4192</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16663</v>
+        <v>16493</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004254325365641804</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002107334074493596</v>
+        <v>0.00196304644489145</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007803053949664935</v>
+        <v>0.007723316663087621</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>149394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125432</v>
+        <v>126293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176777</v>
+        <v>176142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1385981358068258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.116367272445324</v>
+        <v>0.1171668517281605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640026125754815</v>
+        <v>0.1634133974524663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1408,19 +1408,19 @@
         <v>113437</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93779</v>
+        <v>94084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137187</v>
+        <v>136042</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1072655088183588</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08867635925628571</v>
+        <v>0.08896535248121215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.129723299567588</v>
+        <v>0.1286404424183514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>231</v>
@@ -1429,19 +1429,19 @@
         <v>262831</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>234570</v>
+        <v>230844</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>299118</v>
+        <v>298868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1230811616187308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1098464013873366</v>
+        <v>0.1081018756128487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1400737589853805</v>
+        <v>0.1399564714463059</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>906773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>880408</v>
+        <v>879719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931634</v>
+        <v>930857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8412451040639743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8167856407405184</v>
+        <v>0.8161461862255565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8643091767073917</v>
+        <v>0.8635883998909032</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>913</v>
@@ -1479,19 +1479,19 @@
         <v>930098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>907507</v>
+        <v>906524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>951013</v>
+        <v>951401</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.879493649490341</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8581313630666435</v>
+        <v>0.8572018483298687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8992709942224441</v>
+        <v>0.8996374699941379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1817</v>
@@ -1500,19 +1500,19 @@
         <v>1836871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1801700</v>
+        <v>1799047</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1866942</v>
+        <v>1867152</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8601870744366332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8437169173384604</v>
+        <v>0.8424746351317519</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8742688219885105</v>
+        <v>0.874367150104581</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>6175</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2105</v>
+        <v>2233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12673</v>
+        <v>12439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005505590369909707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001876410375944109</v>
+        <v>0.001991356605714697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01129913347721173</v>
+        <v>0.01109006978225201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7846</v>
+        <v>7509</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002073575110012437</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007893575941046322</v>
+        <v>0.007555265348587749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1646,19 +1646,19 @@
         <v>8236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3258</v>
+        <v>3899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14890</v>
+        <v>16147</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003893129363042844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001540168674445205</v>
+        <v>0.001842987089251096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007038219973707334</v>
+        <v>0.007632698134517449</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>5643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1920</v>
+        <v>2567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11926</v>
+        <v>11952</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005031616645968976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001712227125617357</v>
+        <v>0.002288609797505765</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01063334430260721</v>
+        <v>0.010656532649116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1696,19 +1696,19 @@
         <v>3309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10010</v>
+        <v>9670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00332922937845777</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001073593596667236</v>
+        <v>0.001074018421619109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01007129950815509</v>
+        <v>0.009729439548312012</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1717,19 +1717,19 @@
         <v>8952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4101</v>
+        <v>4066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17271</v>
+        <v>16697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004231785386614198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001938473389707062</v>
+        <v>0.001922188788628967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008164066015865532</v>
+        <v>0.007892546334494668</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>9231</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4651</v>
+        <v>4486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17784</v>
+        <v>17384</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00823029754224323</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004146784559529748</v>
+        <v>0.003999721723860228</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01585622286527016</v>
+        <v>0.01549933769356144</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1767,19 +1767,19 @@
         <v>6550</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2613</v>
+        <v>2128</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14743</v>
+        <v>14069</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006590346205803251</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002628922513724339</v>
+        <v>0.002140518225604195</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0148327929286063</v>
+        <v>0.0141545669437852</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -1788,19 +1788,19 @@
         <v>15781</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9125</v>
+        <v>9011</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25767</v>
+        <v>26344</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.007459800506851895</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004313415312053031</v>
+        <v>0.004259646232730505</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01217972293611778</v>
+        <v>0.0124527879971976</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>87966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70720</v>
+        <v>70388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110183</v>
+        <v>109910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07842989167838711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06305285595145176</v>
+        <v>0.06275709036886912</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09823790252208398</v>
+        <v>0.09799485874732486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1838,19 +1838,19 @@
         <v>72474</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57625</v>
+        <v>55760</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92402</v>
+        <v>93385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07291633208521718</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05797599440332397</v>
+        <v>0.05609984841482286</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09296550340057018</v>
+        <v>0.09395479902647448</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -1859,19 +1859,19 @@
         <v>160441</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>134660</v>
+        <v>133861</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187602</v>
+        <v>188172</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07583946034875214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06365292299885185</v>
+        <v>0.06327539104868224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.088678318994567</v>
+        <v>0.08894759305643905</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>1012578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>988261</v>
+        <v>989522</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1031801</v>
+        <v>1031843</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.902802603763491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8811216899615641</v>
+        <v>0.8822458579732638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9199412016378531</v>
+        <v>0.9199794795608639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>907</v>
@@ -1909,19 +1909,19 @@
         <v>909545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>890721</v>
+        <v>887599</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>926383</v>
+        <v>927754</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9150905172205094</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8961515261760379</v>
+        <v>0.8930108050234571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.932031216251448</v>
+        <v>0.9334102694586314</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1913</v>
@@ -1930,19 +1930,19 @@
         <v>1922123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1892702</v>
+        <v>1893307</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1950513</v>
+        <v>1951467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9085758243947389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.894668885931914</v>
+        <v>0.8949547225438924</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9219954884817226</v>
+        <v>0.922446421506057</v>
       </c>
     </row>
     <row r="21">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6947</v>
+        <v>6677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004326659467085358</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01553340232773463</v>
+        <v>0.01493018308676415</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6665</v>
+        <v>7570</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006393884953813654</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01953623566473015</v>
+        <v>0.02219026466513626</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2076,19 +2076,19 @@
         <v>4116</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1031</v>
+        <v>1078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9599</v>
+        <v>10006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005221241624631607</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001307399919694998</v>
+        <v>0.001366924327154714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01217600782970442</v>
+        <v>0.0126921057589028</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>2834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7912</v>
+        <v>7602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006336959367355605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001966340509241512</v>
+        <v>0.001990909601753311</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01769142487676567</v>
+        <v>0.01699826529674903</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>2834</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7906</v>
+        <v>7581</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003594669849580816</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001119722351844355</v>
+        <v>0.001115545591609953</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01002876779848477</v>
+        <v>0.009615587805725183</v>
       </c>
     </row>
     <row r="24">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5245</v>
+        <v>5229</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003083162510941746</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01537554402822257</v>
+        <v>0.01532706590759519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5931</v>
+        <v>5282</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001334224151555506</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.007523813250250749</v>
+        <v>0.006700419522110194</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>32898</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22136</v>
+        <v>21046</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47848</v>
+        <v>46319</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07356551611477018</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04950019010709736</v>
+        <v>0.04706142867685111</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1069950008603378</v>
+        <v>0.1035744765718308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2252,19 +2252,19 @@
         <v>14905</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8776</v>
+        <v>8672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23716</v>
+        <v>24181</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04368821542191421</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0257249836151289</v>
+        <v>0.02541919665454754</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06951756738608829</v>
+        <v>0.07087977460246969</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -2273,19 +2273,19 @@
         <v>47803</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35741</v>
+        <v>34453</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63837</v>
+        <v>63671</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06063625402552714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04533658423750199</v>
+        <v>0.04370249799644832</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08097437597308553</v>
+        <v>0.08076456869373665</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>409533</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>395008</v>
+        <v>395562</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>421418</v>
+        <v>421172</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9157708650507889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8832914385410897</v>
+        <v>0.8845295146466688</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9423482778955433</v>
+        <v>0.941798070160256</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>322</v>
@@ -2323,19 +2323,19 @@
         <v>323020</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>313433</v>
+        <v>312540</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>330373</v>
+        <v>329786</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9468347371133304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9187316647175787</v>
+        <v>0.91611512158678</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9683874459781067</v>
+        <v>0.9666674722447157</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>726</v>
@@ -2344,19 +2344,19 @@
         <v>732553</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>715673</v>
+        <v>715357</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>745172</v>
+        <v>746164</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.929213610348705</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9078022713101159</v>
+        <v>0.9074009239207348</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9452206179108095</v>
+        <v>0.9464791802861071</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>15135</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9016</v>
+        <v>9184</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24286</v>
+        <v>23475</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004684701241660815</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0027904749943841</v>
+        <v>0.002842762974164381</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007516887878901223</v>
+        <v>0.00726604695037602</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2469,19 +2469,19 @@
         <v>13081</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7503</v>
+        <v>7188</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21780</v>
+        <v>22417</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003945951702326611</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002263315877188428</v>
+        <v>0.002168418486270893</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006570108352144882</v>
+        <v>0.006762290535520714</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -2490,19 +2490,19 @@
         <v>28216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19290</v>
+        <v>19832</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41076</v>
+        <v>41153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004310578537932577</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002946885534171915</v>
+        <v>0.003029660260105533</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00627510961214618</v>
+        <v>0.006286937287309798</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>27930</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18882</v>
+        <v>20122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40989</v>
+        <v>39366</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008644860262713622</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005844368801188736</v>
+        <v>0.006228205916385971</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01268673788175019</v>
+        <v>0.01218459905816115</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2540,19 +2540,19 @@
         <v>12537</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6657</v>
+        <v>6566</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20910</v>
+        <v>21516</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003782076706435641</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002008131886855483</v>
+        <v>0.001980858191546885</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.006307835495975259</v>
+        <v>0.006490624230419121</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -2561,19 +2561,19 @@
         <v>40468</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>27528</v>
+        <v>28764</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53524</v>
+        <v>54975</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006182215435402384</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00420543092050868</v>
+        <v>0.004394193391434819</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008176826126884817</v>
+        <v>0.008398458148737678</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>15392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9097</v>
+        <v>8936</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25149</v>
+        <v>25650</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004764039182213658</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00281558525613088</v>
+        <v>0.00276579702236747</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.00778414775567359</v>
+        <v>0.007939191177857753</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2611,19 +2611,19 @@
         <v>14405</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7611</v>
+        <v>7998</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23984</v>
+        <v>23604</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004345545410019445</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002296023344533794</v>
+        <v>0.002412606864230713</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007235051846161999</v>
+        <v>0.007120388380218242</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2632,19 +2632,19 @@
         <v>29797</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19973</v>
+        <v>20189</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>41943</v>
+        <v>43962</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004552102641870316</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00305123127858752</v>
+        <v>0.003084210034387299</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.006407694983561828</v>
+        <v>0.006716064929445723</v>
       </c>
     </row>
     <row r="31">
@@ -2661,19 +2661,19 @@
         <v>392871</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>354093</v>
+        <v>355676</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>430898</v>
+        <v>433854</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1216005353153923</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1095981900602729</v>
+        <v>0.1100880395396104</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1333707247025724</v>
+        <v>0.1342856507545017</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>301</v>
@@ -2682,19 +2682,19 @@
         <v>342809</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>308671</v>
+        <v>309517</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>383152</v>
+        <v>380831</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.103412341139555</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09311414880109341</v>
+        <v>0.09336958759696248</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1155823337942734</v>
+        <v>0.1148821387329381</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>639</v>
@@ -2703,19 +2703,19 @@
         <v>735679</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>681327</v>
+        <v>681440</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>795043</v>
+        <v>792201</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1123895429307052</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.104086126560797</v>
+        <v>0.1041034093159816</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1214584863268839</v>
+        <v>0.1210243056000096</v>
       </c>
     </row>
     <row r="32">
@@ -2732,19 +2732,19 @@
         <v>2779501</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2738599</v>
+        <v>2735130</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2821583</v>
+        <v>2820228</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8603058639980197</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8476459036291427</v>
+        <v>0.8465722514629824</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8733308570500136</v>
+        <v>0.8729114636248174</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2895</v>
@@ -2753,19 +2753,19 @@
         <v>2932137</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2888633</v>
+        <v>2890861</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2967172</v>
+        <v>2967595</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8845140850416633</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8713905730105264</v>
+        <v>0.8720628911153674</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8950829472156859</v>
+        <v>0.8952105285744583</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5668</v>
@@ -2774,19 +2774,19 @@
         <v>5711638</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5652071</v>
+        <v>5655002</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5765812</v>
+        <v>5767699</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8725655604540895</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8634655569901923</v>
+        <v>0.8639133198725835</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8808417989573006</v>
+        <v>0.8811300496367799</v>
       </c>
     </row>
     <row r="33">
@@ -3118,19 +3118,19 @@
         <v>17292</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10184</v>
+        <v>9777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28034</v>
+        <v>26983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01659590645420682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009774320011419082</v>
+        <v>0.009383564609898448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02690573236980828</v>
+        <v>0.02589677649702377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -3139,19 +3139,19 @@
         <v>22084</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14107</v>
+        <v>13936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33862</v>
+        <v>33326</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01977633356011031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01263307883968426</v>
+        <v>0.01247970612963106</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03032338060684987</v>
+        <v>0.02984339379654009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -3160,19 +3160,19 @@
         <v>39376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28118</v>
+        <v>27621</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55108</v>
+        <v>56084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01824118591039415</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01302565364991827</v>
+        <v>0.01279570354282357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02552918546177804</v>
+        <v>0.02598114595036364</v>
       </c>
     </row>
     <row r="5">
@@ -3189,19 +3189,19 @@
         <v>6824</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2933</v>
+        <v>2943</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13036</v>
+        <v>13774</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006549074747433842</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002814760418078668</v>
+        <v>0.002824912593542299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.012511080079979</v>
+        <v>0.01321958847799195</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3210,19 +3210,19 @@
         <v>3090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9080</v>
+        <v>8084</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002766699719618055</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0008324673301729743</v>
+        <v>0.0008283520769687331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.00813149154335348</v>
+        <v>0.007238923130168375</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -3231,19 +3231,19 @@
         <v>9913</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5024</v>
+        <v>4940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18319</v>
+        <v>18313</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004592399206180255</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002327200823656794</v>
+        <v>0.002288492803108549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.00848646650093509</v>
+        <v>0.008483600030252489</v>
       </c>
     </row>
     <row r="6">
@@ -3307,19 +3307,19 @@
         <v>200252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175238</v>
+        <v>175721</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224511</v>
+        <v>229403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.192190180583093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1681830533930972</v>
+        <v>0.1686466556509023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2154721389441127</v>
+        <v>0.2201672097998022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -3328,19 +3328,19 @@
         <v>196139</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170916</v>
+        <v>171010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>226924</v>
+        <v>225135</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1756417804496228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1530550687830334</v>
+        <v>0.1531388772155948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2032096469402047</v>
+        <v>0.2016082544319664</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>357</v>
@@ -3349,19 +3349,19 @@
         <v>396391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>359491</v>
+        <v>359037</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>435454</v>
+        <v>433649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1836294615771997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1665355946237237</v>
+        <v>0.1663251593106274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2017257975491927</v>
+        <v>0.2008894493068525</v>
       </c>
     </row>
     <row r="8">
@@ -3378,19 +3378,19 @@
         <v>817579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>790600</v>
+        <v>789085</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>845524</v>
+        <v>844005</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7846648382152663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7587715069188333</v>
+        <v>0.757318217714027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8114844344515962</v>
+        <v>0.8100268063995832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>831</v>
@@ -3399,19 +3399,19 @@
         <v>895385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>860014</v>
+        <v>865325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>921574</v>
+        <v>921533</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8018151862706488</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7701409888774297</v>
+        <v>0.774896856158918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8252678136050426</v>
+        <v>0.8252313580854347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1601</v>
@@ -3420,19 +3420,19 @@
         <v>1712964</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1672020</v>
+        <v>1670833</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1750297</v>
+        <v>1749706</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7935369533062259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7745697748566588</v>
+        <v>0.77401987970536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8108316501815116</v>
+        <v>0.8105579959739034</v>
       </c>
     </row>
     <row r="9">
@@ -3524,19 +3524,19 @@
         <v>11725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6689</v>
+        <v>6294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19782</v>
+        <v>19933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01200015403449118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006846403030295431</v>
+        <v>0.00644138601835199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02024595531522632</v>
+        <v>0.0204009389971307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3545,19 +3545,19 @@
         <v>8263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3822</v>
+        <v>3305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17116</v>
+        <v>17340</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007550925698652461</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003492494236565432</v>
+        <v>0.003020321807129975</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01564121426483864</v>
+        <v>0.01584629920537235</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3566,19 +3566,19 @@
         <v>19988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11864</v>
+        <v>12645</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30179</v>
+        <v>32032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009649678456582336</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005727595033788497</v>
+        <v>0.006104896482224727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01456959164351903</v>
+        <v>0.01546435780857189</v>
       </c>
     </row>
     <row r="11">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4937</v>
+        <v>4951</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.000902230526464517</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004511433315031473</v>
+        <v>0.004524730553242253</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4962</v>
+        <v>5495</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0004766378926917717</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.002395719880903608</v>
+        <v>0.002652965012118688</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>118086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97745</v>
+        <v>97416</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140478</v>
+        <v>142194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.120856605555116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1000386967589146</v>
+        <v>0.09970226947749672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1437741545173348</v>
+        <v>0.1455306094561105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -3726,19 +3726,19 @@
         <v>141523</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116573</v>
+        <v>119658</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165496</v>
+        <v>166122</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1293316599476416</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1065314563912885</v>
+        <v>0.1093502217345728</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1512395836706649</v>
+        <v>0.1518117526991084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -3747,19 +3747,19 @@
         <v>259608</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>228940</v>
+        <v>226501</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>295487</v>
+        <v>291878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1253338782117294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1105275933211229</v>
+        <v>0.1093503318609345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1426552156482167</v>
+        <v>0.1409131431259114</v>
       </c>
     </row>
     <row r="14">
@@ -3776,19 +3776,19 @@
         <v>847262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>825595</v>
+        <v>821822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>870640</v>
+        <v>867625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8671432404103928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8449674854187128</v>
+        <v>0.8411055913296458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8910692134243791</v>
+        <v>0.8879836129260997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>885</v>
@@ -3797,19 +3797,19 @@
         <v>943489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>918761</v>
+        <v>917864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>967859</v>
+        <v>965497</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8622151838272415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8396169659874826</v>
+        <v>0.8387974097357773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8844856086856813</v>
+        <v>0.882326639173857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1695</v>
@@ -3818,19 +3818,19 @@
         <v>1790752</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1755875</v>
+        <v>1757315</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1823839</v>
+        <v>1825100</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8645398054389964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8477019774614696</v>
+        <v>0.8483972526949937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8805136383064487</v>
+        <v>0.8811226910982629</v>
       </c>
     </row>
     <row r="15">
@@ -3922,19 +3922,19 @@
         <v>9223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4139</v>
+        <v>4278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19801</v>
+        <v>19247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01043058934806895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004680969706627677</v>
+        <v>0.004837729073483781</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0223938909986022</v>
+        <v>0.02176756145450641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3943,19 +3943,19 @@
         <v>6143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2908</v>
+        <v>2142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13313</v>
+        <v>13568</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00702362152376657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003324900503054274</v>
+        <v>0.002448690530399892</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01522223822593021</v>
+        <v>0.01551277630412566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3964,19 +3964,19 @@
         <v>15366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8931</v>
+        <v>9078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26319</v>
+        <v>26971</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008736414874294241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005077634576902459</v>
+        <v>0.005161299489200993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0149638699655435</v>
+        <v>0.01533479690500279</v>
       </c>
     </row>
     <row r="17">
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5252</v>
+        <v>4881</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00109345408162998</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.005939271249529754</v>
+        <v>0.005520225903196728</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5604</v>
+        <v>4586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001158854683010296</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.00640790552891519</v>
+        <v>0.005244028972972279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6044</v>
+        <v>6925</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00112597567711958</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.003436167446097126</v>
+        <v>0.003937335780090599</v>
       </c>
     </row>
     <row r="18">
@@ -4111,19 +4111,19 @@
         <v>75720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59247</v>
+        <v>60604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94721</v>
+        <v>95449</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08563494143339874</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.067005509586613</v>
+        <v>0.06854004237325963</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1071237553978024</v>
+        <v>0.1079474227031889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -4132,19 +4132,19 @@
         <v>64940</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51602</v>
+        <v>49913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83056</v>
+        <v>80857</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07425102204530082</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05900082844437231</v>
+        <v>0.05706909171578856</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0949639940737006</v>
+        <v>0.09244938738994551</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -4153,19 +4153,19 @@
         <v>140660</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118922</v>
+        <v>116519</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167267</v>
+        <v>164607</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07997408796092027</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06761449631756512</v>
+        <v>0.06624842894975908</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09510170717512678</v>
+        <v>0.09358912502256561</v>
       </c>
     </row>
     <row r="20">
@@ -4182,19 +4182,19 @@
         <v>798308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>776603</v>
+        <v>777661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>815825</v>
+        <v>815706</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9028410151369023</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8782938181414702</v>
+        <v>0.8794898973473477</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9226514492267772</v>
+        <v>0.9225171338374509</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>753</v>
@@ -4203,19 +4203,19 @@
         <v>802509</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>783275</v>
+        <v>785400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>816982</v>
+        <v>817799</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9175665017479223</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8955744583031842</v>
+        <v>0.8980042354761647</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9341144110252728</v>
+        <v>0.9350488341607384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1507</v>
@@ -4224,19 +4224,19 @@
         <v>1600817</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1574662</v>
+        <v>1573946</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1624327</v>
+        <v>1624271</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9101635214876659</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8952926646467044</v>
+        <v>0.8948856990880374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9235301521656205</v>
+        <v>0.9234983405837088</v>
       </c>
     </row>
     <row r="21">
@@ -4328,19 +4328,19 @@
         <v>5786</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12438</v>
+        <v>12190</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01152279590181591</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004049315757926033</v>
+        <v>0.004057571325142236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02476915484036935</v>
+        <v>0.0242754741733767</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4349,19 +4349,19 @@
         <v>5004</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1946</v>
+        <v>1957</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11928</v>
+        <v>11622</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01105197349087532</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004298856826282451</v>
+        <v>0.004322780896009098</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02634704392591037</v>
+        <v>0.0256698498067257</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4370,19 +4370,19 @@
         <v>10790</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5697</v>
+        <v>5795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18921</v>
+        <v>18733</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01129956551416648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005966684790306533</v>
+        <v>0.006069189699866237</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01981496149308222</v>
+        <v>0.01961810811409605</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>53798</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37650</v>
+        <v>40138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70575</v>
+        <v>70912</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.107136824607455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.074978217928983</v>
+        <v>0.07993311816041511</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.140547201632579</v>
+        <v>0.1412188804907945</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -4514,19 +4514,19 @@
         <v>38183</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27263</v>
+        <v>27361</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52808</v>
+        <v>52401</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08433733341480351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06021919024483759</v>
+        <v>0.06043496418285316</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1166415950012515</v>
+        <v>0.1157428614963899</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>78</v>
@@ -4535,19 +4535,19 @@
         <v>91981</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71833</v>
+        <v>73959</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112517</v>
+        <v>114260</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09632693293943144</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07522735098662139</v>
+        <v>0.07745426402683601</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.117833487330793</v>
+        <v>0.1196589851905559</v>
       </c>
     </row>
     <row r="26">
@@ -4564,19 +4564,19 @@
         <v>442560</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>426207</v>
+        <v>425813</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>459097</v>
+        <v>456345</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8813403794907292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8487735477992598</v>
+        <v>0.8479900324874994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9142739837211342</v>
+        <v>0.9087923577113531</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>373</v>
@@ -4585,19 +4585,19 @@
         <v>409550</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>394637</v>
+        <v>393959</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>421197</v>
+        <v>421168</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9046106930943212</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8716718517802701</v>
+        <v>0.8701742932624268</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9303368637382784</v>
+        <v>0.9302719470042237</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>783</v>
@@ -4606,19 +4606,19 @@
         <v>852109</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>828624</v>
+        <v>829661</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>871634</v>
+        <v>871458</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.892373501546402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8677786810873529</v>
+        <v>0.8688647752891372</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9128209871254538</v>
+        <v>0.9126373322138353</v>
       </c>
     </row>
     <row r="27">
@@ -4710,19 +4710,19 @@
         <v>44026</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31987</v>
+        <v>32255</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>58336</v>
+        <v>59054</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0129283880580837</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009393190862077508</v>
+        <v>0.009471647256672103</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0171305854133937</v>
+        <v>0.01734135309868958</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -4731,19 +4731,19 @@
         <v>41493</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29289</v>
+        <v>28325</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56348</v>
+        <v>56269</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01172692376867251</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00827766336703724</v>
+        <v>0.008005226000813884</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01592506581454954</v>
+        <v>0.01590284994766421</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -4752,19 +4752,19 @@
         <v>85519</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68037</v>
+        <v>68175</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>107039</v>
+        <v>105473</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01231615643907974</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009798356190144799</v>
+        <v>0.009818212080139391</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01541530057300812</v>
+        <v>0.01518977406011881</v>
       </c>
     </row>
     <row r="29">
@@ -4781,19 +4781,19 @@
         <v>7791</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3871</v>
+        <v>3771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14741</v>
+        <v>14528</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00228774398464719</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001136597588377667</v>
+        <v>0.001107498431064507</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.004328865278692166</v>
+        <v>0.004266234587422075</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -4802,19 +4802,19 @@
         <v>5090</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2016</v>
+        <v>1947</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11666</v>
+        <v>10726</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001438651799531375</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0005698266237336558</v>
+        <v>0.0005503269876782644</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.003297192974401203</v>
+        <v>0.003031384376847218</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -4823,19 +4823,19 @@
         <v>12881</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6828</v>
+        <v>6983</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22066</v>
+        <v>21385</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001855071047333484</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0009832737022040068</v>
+        <v>0.00100571130397603</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.003177859526941792</v>
+        <v>0.00307978692982825</v>
       </c>
     </row>
     <row r="30">
@@ -4899,19 +4899,19 @@
         <v>447856</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>407917</v>
+        <v>406286</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>488283</v>
+        <v>493333</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1315141127368154</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1197858683274442</v>
+        <v>0.1193069871927687</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1433856084930985</v>
+        <v>0.1448684858207248</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>395</v>
@@ -4920,19 +4920,19 @@
         <v>440784</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>394044</v>
+        <v>398952</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>481657</v>
+        <v>486398</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1245751268366167</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1113653424399573</v>
+        <v>0.1127524119389255</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.136126518925833</v>
+        <v>0.1374665793636886</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>790</v>
@@ -4941,19 +4941,19 @@
         <v>888640</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>830365</v>
+        <v>829928</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>950040</v>
+        <v>949305</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1279782052534509</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1195857314545185</v>
+        <v>0.1195226851189794</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1368208469180786</v>
+        <v>0.1367149687955687</v>
       </c>
     </row>
     <row r="32">
@@ -4970,19 +4970,19 @@
         <v>2905709</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2864366</v>
+        <v>2859338</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2951138</v>
+        <v>2949253</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8532697552204537</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8411291344014397</v>
+        <v>0.8396525433041526</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8666099698853088</v>
+        <v>0.8660565784315831</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2842</v>
@@ -4991,19 +4991,19 @@
         <v>3050933</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3007950</v>
+        <v>3002824</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3101739</v>
+        <v>3092334</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8622592975951794</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8501115222194636</v>
+        <v>0.848662588643297</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8766181725441458</v>
+        <v>0.873960069503378</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5586</v>
@@ -5012,19 +5012,19 @@
         <v>5956642</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5892580</v>
+        <v>5893464</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6018305</v>
+        <v>6020918</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8578505672601359</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8486247211020812</v>
+        <v>0.8487519861261024</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8667310144304402</v>
+        <v>0.8671074269504156</v>
       </c>
     </row>
     <row r="33">
@@ -5356,19 +5356,19 @@
         <v>6639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2165</v>
+        <v>2559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13755</v>
+        <v>13539</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005894674116622193</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001922404985685412</v>
+        <v>0.002272049589324288</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01221314743479019</v>
+        <v>0.01202113556407055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5377,19 +5377,19 @@
         <v>8986</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4188</v>
+        <v>3851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17633</v>
+        <v>17407</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007151054768490209</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003332788248693179</v>
+        <v>0.003064730213359766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0140322352564249</v>
+        <v>0.01385215069346668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5398,19 +5398,19 @@
         <v>15625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8715</v>
+        <v>8789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26638</v>
+        <v>25435</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006557233339707267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0036572120819677</v>
+        <v>0.003688528418405829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.011178989641914</v>
+        <v>0.01067393897980363</v>
       </c>
     </row>
     <row r="5">
@@ -5427,19 +5427,19 @@
         <v>11533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5493</v>
+        <v>6118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20552</v>
+        <v>20189</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01024022600755732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004876880423567291</v>
+        <v>0.005432519732015895</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01824789422201847</v>
+        <v>0.01792536110056196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5448,19 +5448,19 @@
         <v>14927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8181</v>
+        <v>8764</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23982</v>
+        <v>25128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01187890368601608</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006510449234186792</v>
+        <v>0.006974232104420587</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01908454913380458</v>
+        <v>0.0199959722080923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -5469,19 +5469,19 @@
         <v>26461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18031</v>
+        <v>16949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39317</v>
+        <v>38935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01110439166301549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007566989341652289</v>
+        <v>0.00711275133241219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01649944058968135</v>
+        <v>0.01633942036356735</v>
       </c>
     </row>
     <row r="6">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6983</v>
+        <v>6949</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001765182084396978</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.006200017942958026</v>
+        <v>0.006169666433385924</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -5519,19 +5519,19 @@
         <v>5583</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1866</v>
+        <v>1891</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12728</v>
+        <v>13161</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00444273646271537</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001485009673550489</v>
+        <v>0.001504881894663435</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01012856191320936</v>
+        <v>0.01047329800241459</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -5540,19 +5540,19 @@
         <v>7571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3576</v>
+        <v>3033</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16083</v>
+        <v>14896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003177205061692107</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001500679492368566</v>
+        <v>0.001272882195869355</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006749418054757069</v>
+        <v>0.006251360584229012</v>
       </c>
     </row>
     <row r="7">
@@ -5569,19 +5569,19 @@
         <v>225357</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200622</v>
+        <v>198882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>254198</v>
+        <v>254964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2000921645882102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1781297402709572</v>
+        <v>0.1765853077686112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2256994931678418</v>
+        <v>0.2263797965218771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -5590,19 +5590,19 @@
         <v>214645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>188824</v>
+        <v>189014</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>244292</v>
+        <v>243711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1708091401748713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1502608281914027</v>
+        <v>0.1504127064280457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1944012063515697</v>
+        <v>0.1939384799552636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>403</v>
@@ -5611,19 +5611,19 @@
         <v>440003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>402002</v>
+        <v>401947</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>481118</v>
+        <v>482846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1846496011612455</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1687023668192557</v>
+        <v>0.1686794594884037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2019038950771699</v>
+        <v>0.2026291445019236</v>
       </c>
     </row>
     <row r="8">
@@ -5640,19 +5640,19 @@
         <v>880750</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>852551</v>
+        <v>849168</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>907657</v>
+        <v>907973</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7820077532032133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7569698322025125</v>
+        <v>0.7539663343817533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8058974637911899</v>
+        <v>0.8061780149857088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>955</v>
@@ -5661,19 +5661,19 @@
         <v>1012497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>984043</v>
+        <v>983664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1040365</v>
+        <v>1039717</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.805718164907907</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7830755243988154</v>
+        <v>0.782773489553899</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8278947903006973</v>
+        <v>0.8273790236513789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1801</v>
@@ -5682,19 +5682,19 @@
         <v>1893247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1850990</v>
+        <v>1848702</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1933508</v>
+        <v>1930995</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7945115687743396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7767782498903908</v>
+        <v>0.7758177899358861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8114074064246291</v>
+        <v>0.8103525394015685</v>
       </c>
     </row>
     <row r="9">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6640</v>
+        <v>7148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002252676526463482</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007328147389359305</v>
+        <v>0.007888093084119896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6055</v>
+        <v>6098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001740273756143181</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006038052057483736</v>
+        <v>0.006081410964910969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5828,19 +5828,19 @@
         <v>3786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9981</v>
+        <v>9214</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001983503296372074</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00050680844961867</v>
+        <v>0.0004856667896934774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005228820498620536</v>
+        <v>0.00482679273769197</v>
       </c>
     </row>
     <row r="11">
@@ -5857,19 +5857,19 @@
         <v>3917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8989</v>
+        <v>9832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004323053545270248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001079374219004492</v>
+        <v>0.001076421248741545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009920246438227066</v>
+        <v>0.0108507451262502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -5878,19 +5878,19 @@
         <v>6118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2203</v>
+        <v>2907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12619</v>
+        <v>13176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006100488339380309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002197083677612542</v>
+        <v>0.002899199905171676</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01258374175346318</v>
+        <v>0.01313972790848344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -5899,19 +5899,19 @@
         <v>10035</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5176</v>
+        <v>5191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18917</v>
+        <v>17814</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005256767983442376</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002711363028094099</v>
+        <v>0.002719513838602895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00990970192358717</v>
+        <v>0.009331832470489011</v>
       </c>
     </row>
     <row r="12">
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5375</v>
+        <v>5321</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.001062328948972296</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.00536024402227765</v>
+        <v>0.00530642911472251</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5353</v>
+        <v>5339</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.000558058096437958</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.002803955246322311</v>
+        <v>0.002796840695604488</v>
       </c>
     </row>
     <row r="13">
@@ -5991,19 +5991,19 @@
         <v>136253</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115286</v>
+        <v>113764</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158793</v>
+        <v>159123</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.15036624632879</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1272277142439703</v>
+        <v>0.1255476383700067</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1752412881990173</v>
+        <v>0.1756053678041811</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -6012,19 +6012,19 @@
         <v>148099</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125527</v>
+        <v>124038</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171554</v>
+        <v>170578</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1476861700345413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.125177534108942</v>
+        <v>0.1236919890889811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1710761163234117</v>
+        <v>0.170102396972805</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>268</v>
@@ -6033,19 +6033,19 @@
         <v>284352</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252274</v>
+        <v>254549</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>314883</v>
+        <v>320223</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1489583601212986</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1321542746376029</v>
+        <v>0.1333458317091732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1649521217600138</v>
+        <v>0.1677493233721617</v>
       </c>
     </row>
     <row r="14">
@@ -6062,19 +6062,19 @@
         <v>763930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>740904</v>
+        <v>740966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>785137</v>
+        <v>787379</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8430580235994762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.817647067619343</v>
+        <v>0.8177151648375527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8664614123735315</v>
+        <v>0.868935908847685</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>796</v>
@@ -6083,19 +6083,19 @@
         <v>845767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821671</v>
+        <v>822127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>869027</v>
+        <v>868316</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8434107389209629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8193819184739267</v>
+        <v>0.8198361738963227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8666058064649639</v>
+        <v>0.865896855577753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1543</v>
@@ -6104,19 +6104,19 @@
         <v>1609698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1578230</v>
+        <v>1572419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1641390</v>
+        <v>1640225</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8432433105024489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8267585428847273</v>
+        <v>0.8237145115916638</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8598451062682673</v>
+        <v>0.8592349513798807</v>
       </c>
     </row>
     <row r="15">
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6177</v>
+        <v>6946</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002376280811440527</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00751432320100209</v>
+        <v>0.008450109468621103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5894</v>
+        <v>5150</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001264892787286737</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007653942994031705</v>
+        <v>0.006687681375318661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -6250,19 +6250,19 @@
         <v>2927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7702</v>
+        <v>7889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001838714878587481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000586644849367737</v>
+        <v>0.0005847034355365264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004837319727607137</v>
+        <v>0.004955184389752998</v>
       </c>
     </row>
     <row r="17">
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4646</v>
+        <v>4914</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001180818968627021</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.005651916403330209</v>
+        <v>0.005978235234749269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -6300,19 +6300,19 @@
         <v>4308</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11179</v>
+        <v>10774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005594113725155375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001315139457321984</v>
+        <v>0.001323053985612261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01451660211178</v>
+        <v>0.0139904081284536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -6321,19 +6321,19 @@
         <v>5279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11950</v>
+        <v>13079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00331548018612124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001202204235720411</v>
+        <v>0.001196460741219712</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.007505608234358049</v>
+        <v>0.008214899948050924</v>
       </c>
     </row>
     <row r="18">
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4925</v>
+        <v>4945</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001273910475168252</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.00639526834126965</v>
+        <v>0.006420769996398525</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6892</v>
+        <v>3958</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0006161762211505775</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.004329141254692112</v>
+        <v>0.002485818488607684</v>
       </c>
     </row>
     <row r="19">
@@ -6413,19 +6413,19 @@
         <v>90743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72330</v>
+        <v>70608</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110816</v>
+        <v>110567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1103901514448618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08799004024904214</v>
+        <v>0.08589477767550883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1348088212206141</v>
+        <v>0.1345061095167942</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -6434,19 +6434,19 @@
         <v>62476</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49179</v>
+        <v>48987</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80559</v>
+        <v>78286</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08112819211140614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06386177268281479</v>
+        <v>0.06361203137144329</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1046106279903258</v>
+        <v>0.1016584010148866</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -6455,19 +6455,19 @@
         <v>153219</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129930</v>
+        <v>131324</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177809</v>
+        <v>180156</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09623646963047122</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08160881378832859</v>
+        <v>0.08248397949975135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1116813395907515</v>
+        <v>0.1131555081885439</v>
       </c>
     </row>
     <row r="20">
@@ -6484,19 +6484,19 @@
         <v>728358</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>709126</v>
+        <v>708153</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>746957</v>
+        <v>747716</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8860527487750706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8626576781300745</v>
+        <v>0.8614738275881586</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9086790827387468</v>
+        <v>0.909602926181152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>660</v>
@@ -6505,19 +6505,19 @@
         <v>701347</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>683606</v>
+        <v>683474</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>715850</v>
+        <v>715641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9107388909009835</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8877011147189504</v>
+        <v>0.8875300839759408</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9295719103792116</v>
+        <v>0.9292999470007267</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1365</v>
@@ -6526,19 +6526,19 @@
         <v>1429705</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1404555</v>
+        <v>1402995</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1453599</v>
+        <v>1454107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8979931590836695</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8821967091919378</v>
+        <v>0.8812170608055918</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9130008718650802</v>
+        <v>0.9133201028491825</v>
       </c>
     </row>
     <row r="21">
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7738</v>
+        <v>6624</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004322271308182346</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01527081797640018</v>
+        <v>0.01307226495552689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6532</v>
+        <v>6534</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003804099216674163</v>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01341737476537935</v>
+        <v>0.01342205781788229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -6672,19 +6672,19 @@
         <v>4042</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1055</v>
+        <v>938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10152</v>
+        <v>9317</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004068372765034481</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001061603203076741</v>
+        <v>0.0009440538414572821</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01021800337555027</v>
+        <v>0.009377460193495845</v>
       </c>
     </row>
     <row r="23">
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4180</v>
+        <v>4497</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001772537416348201</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008250300304467913</v>
+        <v>0.008875614585458873</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -6722,19 +6722,19 @@
         <v>4941</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1827</v>
+        <v>1792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10934</v>
+        <v>10856</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01014949727687418</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003753242032073077</v>
+        <v>0.00368184573410914</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0224598913646784</v>
+        <v>0.02230089210684788</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -6743,19 +6743,19 @@
         <v>5839</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2386</v>
+        <v>2671</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12104</v>
+        <v>13756</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00587715427906881</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002401186947317392</v>
+        <v>0.002688928144543525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01218316451752909</v>
+        <v>0.01384598265627192</v>
       </c>
     </row>
     <row r="24">
@@ -6819,19 +6819,19 @@
         <v>73328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57910</v>
+        <v>57079</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92583</v>
+        <v>92088</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1447171074001081</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.114288265526454</v>
+        <v>0.1126487392411707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1827176376245257</v>
+        <v>0.1817405654693674</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -6840,19 +6840,19 @@
         <v>56256</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42910</v>
+        <v>42784</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72601</v>
+        <v>71335</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1155611184733867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08814475615523405</v>
+        <v>0.08788704543811977</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1491367196982094</v>
+        <v>0.1465358566518454</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -6861,19 +6861,19 @@
         <v>129584</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>107772</v>
+        <v>110400</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152098</v>
+        <v>154414</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1304309981444286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1084757315445885</v>
+        <v>0.1111216379723694</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1530917647293634</v>
+        <v>0.1554227512408405</v>
       </c>
     </row>
     <row r="26">
@@ -6890,19 +6890,19 @@
         <v>430284</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>411240</v>
+        <v>411406</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>446221</v>
+        <v>446599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8491880838753614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8116029840941176</v>
+        <v>0.8119298298078814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8806403758519471</v>
+        <v>0.8813853933828331</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>392</v>
@@ -6911,19 +6911,19 @@
         <v>423760</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>406818</v>
+        <v>407545</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>437413</v>
+        <v>438180</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.870485285033065</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8356832067006496</v>
+        <v>0.837176906268948</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8985302835590488</v>
+        <v>0.9001062973515722</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>797</v>
@@ -6932,19 +6932,19 @@
         <v>854044</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>829688</v>
+        <v>831359</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>875157</v>
+        <v>874856</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8596234748114682</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8351083182363684</v>
+        <v>0.8367902825767589</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8808749845831344</v>
+        <v>0.8805721537387652</v>
       </c>
     </row>
     <row r="27">
@@ -7036,19 +7036,19 @@
         <v>12824</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6898</v>
+        <v>7286</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23263</v>
+        <v>22017</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003815284073510579</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002052166058380241</v>
+        <v>0.002167581057688382</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006921175645520314</v>
+        <v>0.006550605082022202</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -7057,19 +7057,19 @@
         <v>13557</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7518</v>
+        <v>7511</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23203</v>
+        <v>23828</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003855548909585227</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002137937673831778</v>
+        <v>0.002136086060851468</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006598541707629961</v>
+        <v>0.00677647832769207</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -7078,19 +7078,19 @@
         <v>26381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16230</v>
+        <v>17698</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38163</v>
+        <v>38575</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003835870786866959</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002359835225866246</v>
+        <v>0.002573387076206261</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005548997770804299</v>
+        <v>0.005608860606861174</v>
       </c>
     </row>
     <row r="29">
@@ -7107,19 +7107,19 @@
         <v>17319</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10374</v>
+        <v>9979</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29173</v>
+        <v>27539</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005152825863223974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00308660601620504</v>
+        <v>0.002969074246903125</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.008679589435590095</v>
+        <v>0.008193409184647581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>29</v>
@@ -7128,19 +7128,19 @@
         <v>30294</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20005</v>
+        <v>20147</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43674</v>
+        <v>42277</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008615191559563039</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005689154756433502</v>
+        <v>0.005729589577023859</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01242020526050162</v>
+        <v>0.01202313687298501</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -7149,19 +7149,19 @@
         <v>47613</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35686</v>
+        <v>34245</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63889</v>
+        <v>62113</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006923073480607739</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005188830339505898</v>
+        <v>0.004979302292423298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009289642600155131</v>
+        <v>0.009031392688643709</v>
       </c>
     </row>
     <row r="30">
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6900</v>
+        <v>6931</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0005914869044879385</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.002052730561140728</v>
+        <v>0.002061983540520315</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -7199,19 +7199,19 @@
         <v>7629</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3329</v>
+        <v>3144</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17303</v>
+        <v>15964</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002169659284377981</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.000946683610414107</v>
+        <v>0.0008939966846922243</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004920800634619634</v>
+        <v>0.004539933764604009</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -7220,19 +7220,19 @@
         <v>9617</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5056</v>
+        <v>4774</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19252</v>
+        <v>17865</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001398379110668006</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0007351473553446963</v>
+        <v>0.0006941082762779506</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.002799289648271151</v>
+        <v>0.002597547426662457</v>
       </c>
     </row>
     <row r="31">
@@ -7249,19 +7249,19 @@
         <v>525682</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>485997</v>
+        <v>484901</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>579739</v>
+        <v>569346</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1564002001358553</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1445932415696923</v>
+        <v>0.1442670815427941</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1724832048220862</v>
+        <v>0.1693911177795543</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>460</v>
@@ -7270,19 +7270,19 @@
         <v>481476</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>441060</v>
+        <v>439273</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>524566</v>
+        <v>525600</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.13692582356371</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1254320428438062</v>
+        <v>0.1249237598588597</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1491801192945594</v>
+        <v>0.1494740143315956</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>925</v>
@@ -7291,19 +7291,19 @@
         <v>1007158</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>950949</v>
+        <v>947143</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1068836</v>
+        <v>1068814</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1464432886624872</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1382702916751591</v>
+        <v>0.1377169604381328</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1554113591590859</v>
+        <v>0.1554082104171695</v>
       </c>
     </row>
     <row r="32">
@@ -7320,19 +7320,19 @@
         <v>2803322</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2748817</v>
+        <v>2758124</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2846640</v>
+        <v>2843895</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8340402030229221</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8178239360195084</v>
+        <v>0.8205930140155696</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8469282760319373</v>
+        <v>0.8461114500833895</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2803</v>
@@ -7341,19 +7341,19 @@
         <v>2983371</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2941017</v>
+        <v>2939379</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3024100</v>
+        <v>3027670</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8484337766827638</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8363887571277469</v>
+        <v>0.8359228288290007</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8600163627053454</v>
+        <v>0.8610317838671889</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5506</v>
@@ -7362,19 +7362,19 @@
         <v>5786693</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5720284</v>
+        <v>5723638</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5843675</v>
+        <v>5847939</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8413993879593701</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8317433455814155</v>
+        <v>0.8322309564772521</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.849684634485386</v>
+        <v>0.8503047336733573</v>
       </c>
     </row>
     <row r="33">
@@ -7753,19 +7753,19 @@
         <v>30072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19783</v>
+        <v>19316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44684</v>
+        <v>43517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06061135012025914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03987259429605503</v>
+        <v>0.03893213196116672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09006138960870395</v>
+        <v>0.08770961444089614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -7774,19 +7774,19 @@
         <v>19439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12404</v>
+        <v>13023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29500</v>
+        <v>28695</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03124744395418697</v>
+        <v>0.03124744395418696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01993878247493726</v>
+        <v>0.02093403855728329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04742068717694287</v>
+        <v>0.04612665328271336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -7795,19 +7795,19 @@
         <v>49511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37501</v>
+        <v>37009</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66155</v>
+        <v>66964</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04427586786911809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03353557342197281</v>
+        <v>0.03309635091365216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05916025296716557</v>
+        <v>0.05988365427001537</v>
       </c>
     </row>
     <row r="6">
@@ -7824,19 +7824,19 @@
         <v>13421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5879</v>
+        <v>5773</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29213</v>
+        <v>27750</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02704975870340925</v>
+        <v>0.02704975870340924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0118491605470055</v>
+        <v>0.01163545045948754</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05887920024338947</v>
+        <v>0.05593185905136935</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -7845,19 +7845,19 @@
         <v>9701</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5271</v>
+        <v>5447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17866</v>
+        <v>18283</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01559461125716475</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008473107515190328</v>
+        <v>0.008755935491474603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02871907370689981</v>
+        <v>0.02939031982601447</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -7866,19 +7866,19 @@
         <v>23122</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13318</v>
+        <v>14355</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38401</v>
+        <v>41020</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02067712705372293</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01191018443822942</v>
+        <v>0.01283710749125529</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03434060688694569</v>
+        <v>0.03668302197319848</v>
       </c>
     </row>
     <row r="7">
@@ -7895,19 +7895,19 @@
         <v>135225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113340</v>
+        <v>112376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158971</v>
+        <v>158010</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2725513285325049</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2284405612471862</v>
+        <v>0.2264971212628893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3204116812090214</v>
+        <v>0.3184752267383605</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -7916,19 +7916,19 @@
         <v>150962</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131921</v>
+        <v>128601</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172611</v>
+        <v>172193</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2426716019950998</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2120629780023376</v>
+        <v>0.206725114687209</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2774713810124811</v>
+        <v>0.2767993495502171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>283</v>
@@ -7937,19 +7937,19 @@
         <v>286188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257536</v>
+        <v>255810</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320465</v>
+        <v>319556</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2559288894142144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2303068411249909</v>
+        <v>0.228763368476418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2865824562162492</v>
+        <v>0.2857693480262223</v>
       </c>
     </row>
     <row r="8">
@@ -7966,19 +7966,19 @@
         <v>317428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292624</v>
+        <v>291104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339983</v>
+        <v>341013</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6397875626438267</v>
+        <v>0.6397875626438266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.589793739045693</v>
+        <v>0.5867300150678537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.685248683802029</v>
+        <v>0.6873231153285715</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>649</v>
@@ -7987,19 +7987,19 @@
         <v>441983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418125</v>
+        <v>420507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>461455</v>
+        <v>464607</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7104863427935484</v>
+        <v>0.7104863427935485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6721341592197081</v>
+        <v>0.6759634117196823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7417881133180932</v>
+        <v>0.7468539331807889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>955</v>
@@ -8008,19 +8008,19 @@
         <v>759411</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723638</v>
+        <v>722775</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>791053</v>
+        <v>791506</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6791181156629446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6471278405366269</v>
+        <v>0.6463561323691973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.70741505798066</v>
+        <v>0.7078195540932698</v>
       </c>
     </row>
     <row r="9">
@@ -8159,19 +8159,19 @@
         <v>9229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3884</v>
+        <v>3937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17024</v>
+        <v>17843</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009612068966273259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004045423066319745</v>
+        <v>0.004100724940235388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01773076988092986</v>
+        <v>0.01858419424642158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -8180,19 +8180,19 @@
         <v>16396</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10160</v>
+        <v>9992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25992</v>
+        <v>25748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01473319673436054</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009129309697822425</v>
+        <v>0.008978335240131976</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02335618276034688</v>
+        <v>0.02313700112875285</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -8201,19 +8201,19 @@
         <v>25625</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17098</v>
+        <v>16954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37024</v>
+        <v>36959</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01236127108445079</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008247952751178811</v>
+        <v>0.008178673589323454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01786031819046801</v>
+        <v>0.01782873516180888</v>
       </c>
     </row>
     <row r="12">
@@ -8230,19 +8230,19 @@
         <v>6814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1333</v>
+        <v>1310</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23452</v>
+        <v>20262</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007096617711598556</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00138856218263436</v>
+        <v>0.001364900061760646</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02442545815561976</v>
+        <v>0.02110327005723853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -8251,19 +8251,19 @@
         <v>10865</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5392</v>
+        <v>5774</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22565</v>
+        <v>22123</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.009763373873776135</v>
+        <v>0.009763373873776134</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004844801356400447</v>
+        <v>0.005188672779959382</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02027702599972386</v>
+        <v>0.01987957942209102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -8272,19 +8272,19 @@
         <v>17679</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10062</v>
+        <v>8679</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33172</v>
+        <v>33179</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.008528226533274147</v>
+        <v>0.008528226533274145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004853622724900045</v>
+        <v>0.004186525664937049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01600205518093765</v>
+        <v>0.01600535842625238</v>
       </c>
     </row>
     <row r="13">
@@ -8301,19 +8301,19 @@
         <v>170550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142987</v>
+        <v>144721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201257</v>
+        <v>198142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.17763056096101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1489235480392353</v>
+        <v>0.1507290752459851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2096123076531377</v>
+        <v>0.2063684638852767</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -8322,19 +8322,19 @@
         <v>140340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118039</v>
+        <v>118454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161577</v>
+        <v>162807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1261082577960218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1060682619247662</v>
+        <v>0.1064411708795952</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1451917501217305</v>
+        <v>0.1462964214346664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>293</v>
@@ -8343,19 +8343,19 @@
         <v>310890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280236</v>
+        <v>274737</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>347574</v>
+        <v>344658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1499715703228064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1351845423113016</v>
+        <v>0.132531706416407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1676676095631654</v>
+        <v>0.1662612722017497</v>
       </c>
     </row>
     <row r="14">
@@ -8372,19 +8372,19 @@
         <v>773545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>744102</v>
+        <v>745162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>803821</v>
+        <v>801287</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8056607523611182</v>
+        <v>0.8056607523611183</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7749952193511964</v>
+        <v>0.7760999773427237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.837194092084613</v>
+        <v>0.8345548448548588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1406</v>
@@ -8393,19 +8393,19 @@
         <v>945254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>922946</v>
+        <v>921914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>970010</v>
+        <v>968365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8493951715958414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8293500003462337</v>
+        <v>0.8284222144481527</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8716406197510979</v>
+        <v>0.8701629707689736</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2174</v>
@@ -8414,19 +8414,19 @@
         <v>1718798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1680191</v>
+        <v>1680389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1751640</v>
+        <v>1755170</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8291389320594686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8105151440135253</v>
+        <v>0.8106105120266436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8449817849099277</v>
+        <v>0.8466843731670712</v>
       </c>
     </row>
     <row r="15">
@@ -8565,19 +8565,19 @@
         <v>13370</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7342</v>
+        <v>7412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22408</v>
+        <v>23310</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01278676289074666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007021942313020854</v>
+        <v>0.00708810096643738</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02143029507635282</v>
+        <v>0.02229311956100511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -8586,19 +8586,19 @@
         <v>11806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6323</v>
+        <v>6912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20393</v>
+        <v>19673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01132410809201461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006064399776520333</v>
+        <v>0.006629996801474454</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01955979300256292</v>
+        <v>0.01886952405067088</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -8607,19 +8607,19 @@
         <v>25176</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17400</v>
+        <v>17791</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36076</v>
+        <v>37618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01205650475278102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008332305487737012</v>
+        <v>0.008519914013900596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01727604386745008</v>
+        <v>0.01801473057369609</v>
       </c>
     </row>
     <row r="18">
@@ -8636,19 +8636,19 @@
         <v>3237</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8914</v>
+        <v>9246</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.003095684916954403</v>
+        <v>0.003095684916954402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0008469653265660728</v>
+        <v>0.0008549214929610303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.008524564166220662</v>
+        <v>0.008842200157707985</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -8657,19 +8657,19 @@
         <v>3853</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1212</v>
+        <v>1133</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9393</v>
+        <v>9002</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.003695226536891091</v>
+        <v>0.003695226536891092</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001162184162120077</v>
+        <v>0.001087024603454235</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009009305138599053</v>
+        <v>0.008634611030686534</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -8678,19 +8678,19 @@
         <v>7089</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2881</v>
+        <v>3559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14095</v>
+        <v>15633</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.003395017437100243</v>
+        <v>0.003395017437100242</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001379806406224399</v>
+        <v>0.001704337164233654</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006749719293170357</v>
+        <v>0.007486196901410764</v>
       </c>
     </row>
     <row r="19">
@@ -8707,19 +8707,19 @@
         <v>93055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74456</v>
+        <v>72561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117278</v>
+        <v>115597</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08899499991785638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07120670546034633</v>
+        <v>0.06939441757095979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1121603712832922</v>
+        <v>0.1105529004384778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -8728,19 +8728,19 @@
         <v>91083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75972</v>
+        <v>73929</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109583</v>
+        <v>111174</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08736369648138397</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07286940027748115</v>
+        <v>0.07091050165454682</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1051077955054428</v>
+        <v>0.1066344571149899</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>187</v>
@@ -8749,19 +8749,19 @@
         <v>184139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159569</v>
+        <v>158975</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>213210</v>
+        <v>211314</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08818054075017855</v>
+        <v>0.08818054075017853</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07641483647846418</v>
+        <v>0.07613020101741068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1021023775345069</v>
+        <v>0.1011944164133701</v>
       </c>
     </row>
     <row r="20">
@@ -8778,19 +8778,19 @@
         <v>935963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>910782</v>
+        <v>914005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>956936</v>
+        <v>957642</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8951225522744426</v>
+        <v>0.8951225522744424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.871039537910575</v>
+        <v>0.8741225263136023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9151795200062202</v>
+        <v>0.9158551707873637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1383</v>
@@ -8799,19 +8799,19 @@
         <v>935831</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>916454</v>
+        <v>915558</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>952359</v>
+        <v>955663</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8976169688897103</v>
+        <v>0.8976169688897104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8790314031757778</v>
+        <v>0.8781712891192168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9134695683889327</v>
+        <v>0.9166391214217695</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2313</v>
@@ -8820,19 +8820,19 @@
         <v>1871795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1840018</v>
+        <v>1842896</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1897189</v>
+        <v>1898688</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8963679370599402</v>
+        <v>0.89636793705994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8811506004700539</v>
+        <v>0.8825288752561758</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9085289575861926</v>
+        <v>0.9092464961048393</v>
       </c>
     </row>
     <row r="21">
@@ -8971,19 +8971,19 @@
         <v>8788</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4597</v>
+        <v>4216</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16530</v>
+        <v>16564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009107273142163353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004763910307713751</v>
+        <v>0.004369058374371338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01713041580843863</v>
+        <v>0.01716524388516656</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -8992,19 +8992,19 @@
         <v>7575</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3664</v>
+        <v>3570</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16535</v>
+        <v>15775</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.008333923554864269</v>
+        <v>0.008333923554864267</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004030938993161843</v>
+        <v>0.003927170910480801</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01819092991333214</v>
+        <v>0.01735512850323679</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -9013,19 +9013,19 @@
         <v>16363</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9888</v>
+        <v>9630</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27300</v>
+        <v>26961</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.008732158639770013</v>
+        <v>0.008732158639770012</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005276562817753342</v>
+        <v>0.005138820471297005</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01456827373245893</v>
+        <v>0.01438773524041358</v>
       </c>
     </row>
     <row r="24">
@@ -9042,19 +9042,19 @@
         <v>14006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6103</v>
+        <v>5721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31964</v>
+        <v>30996</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01451417542340424</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006324801768350476</v>
+        <v>0.005928617864698628</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03312491834743522</v>
+        <v>0.03212141556396171</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -9063,19 +9063,19 @@
         <v>4277</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1515</v>
+        <v>1768</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8968</v>
+        <v>8546</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004704927913473014</v>
+        <v>0.004704927913473013</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001666267236252565</v>
+        <v>0.001945184511191193</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009866507734694073</v>
+        <v>0.009401890700041174</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -9084,19 +9084,19 @@
         <v>18282</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9089</v>
+        <v>8741</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37825</v>
+        <v>34425</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009756183618699309</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004850271000364744</v>
+        <v>0.004664683501444186</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02018519231258811</v>
+        <v>0.01837052885260444</v>
       </c>
     </row>
     <row r="25">
@@ -9113,19 +9113,19 @@
         <v>89327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69576</v>
+        <v>69475</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>115509</v>
+        <v>116292</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09257038004705118</v>
+        <v>0.09257038004705119</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07210188054356347</v>
+        <v>0.07199724969087809</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1197023267228152</v>
+        <v>0.1205136778295703</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -9134,19 +9134,19 @@
         <v>70130</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55210</v>
+        <v>53877</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90220</v>
+        <v>88613</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07715565791258014</v>
+        <v>0.07715565791258013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06074124580547543</v>
+        <v>0.05927436284684449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09925829627716681</v>
+        <v>0.09749066783222633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>144</v>
@@ -9155,19 +9155,19 @@
         <v>159457</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>135925</v>
+        <v>133564</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>191157</v>
+        <v>192406</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08509344346110392</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07253575298586042</v>
+        <v>0.0712756512607505</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1020095463111007</v>
+        <v>0.1026760971178491</v>
       </c>
     </row>
     <row r="26">
@@ -9184,19 +9184,19 @@
         <v>852845</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>826601</v>
+        <v>825296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>876156</v>
+        <v>876541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8838081713873812</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8566117910989454</v>
+        <v>0.855258764515557</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.907966018535475</v>
+        <v>0.9083645686585892</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1232</v>
@@ -9205,19 +9205,19 @@
         <v>826960</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806158</v>
+        <v>807309</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>841149</v>
+        <v>843486</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9098054906190827</v>
+        <v>0.9098054906190824</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8869185519480005</v>
+        <v>0.8881850326710545</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9254150912871222</v>
+        <v>0.9279869080343388</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2086</v>
@@ -9226,19 +9226,19 @@
         <v>1679805</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1645702</v>
+        <v>1644749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1708387</v>
+        <v>1709394</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8964182142804269</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8782190582522463</v>
+        <v>0.8777109053816464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9116705284101826</v>
+        <v>0.9122082608329224</v>
       </c>
     </row>
     <row r="27">
@@ -9377,19 +9377,19 @@
         <v>61459</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46444</v>
+        <v>46453</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81970</v>
+        <v>82200</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.01772759943686928</v>
+        <v>0.01772759943686929</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01339655339569456</v>
+        <v>0.01339914683893454</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02364376130043793</v>
+        <v>0.02371020311266959</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -9398,19 +9398,19 @@
         <v>55216</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42711</v>
+        <v>42661</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>70671</v>
+        <v>70254</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01497800408209207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01158597449395545</v>
+        <v>0.01157234839121307</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01917036693182725</v>
+        <v>0.01905720583875244</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>130</v>
@@ -9419,19 +9419,19 @@
         <v>116675</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>96854</v>
+        <v>96914</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>140005</v>
+        <v>141748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01631060059026952</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01353968396875329</v>
+        <v>0.01354804837196793</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01957197558206966</v>
+        <v>0.01981563887844452</v>
       </c>
     </row>
     <row r="30">
@@ -9448,19 +9448,19 @@
         <v>37477</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22250</v>
+        <v>22762</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>58556</v>
+        <v>62156</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01081001491472139</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006417751247370217</v>
+        <v>0.006565534161812775</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01689014679678425</v>
+        <v>0.01792860511287327</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -9469,19 +9469,19 @@
         <v>28695</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19503</v>
+        <v>19863</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>41048</v>
+        <v>41916</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.007784020874147108</v>
+        <v>0.007784020874147107</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005290550340675685</v>
+        <v>0.005388076201774201</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0111349009099204</v>
+        <v>0.01137032895266691</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -9490,19 +9490,19 @@
         <v>66172</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48169</v>
+        <v>49281</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>91525</v>
+        <v>91599</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009250574520024132</v>
+        <v>0.009250574520024134</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006733788098982503</v>
+        <v>0.006889169552532424</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01279470130372215</v>
+        <v>0.01280511222518105</v>
       </c>
     </row>
     <row r="31">
@@ -9519,19 +9519,19 @@
         <v>488158</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>437636</v>
+        <v>441471</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>537753</v>
+        <v>538387</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1408062567617767</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1262335552913872</v>
+        <v>0.1273396920943989</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1551117445951014</v>
+        <v>0.1552945353889763</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>514</v>
@@ -9540,19 +9540,19 @@
         <v>452516</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>414295</v>
+        <v>414063</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>494435</v>
+        <v>492629</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.122750882097968</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1123830350857262</v>
+        <v>0.1123202052939281</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1341220606478922</v>
+        <v>0.1336323063647665</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>907</v>
@@ -9561,19 +9561,19 @@
         <v>940673</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>877082</v>
+        <v>878685</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1000673</v>
+        <v>1002693</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1315014530461709</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.122611722454174</v>
+        <v>0.1228358386451053</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1398890786359133</v>
+        <v>0.1401714631129117</v>
       </c>
     </row>
     <row r="32">
@@ -9590,19 +9590,19 @@
         <v>2879781</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2828348</v>
+        <v>2826128</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2930133</v>
+        <v>2928605</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8306561288866325</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8158204612591015</v>
+        <v>0.8151803510761219</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8451799884963848</v>
+        <v>0.844739221231016</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4670</v>
@@ -9611,19 +9611,19 @@
         <v>3150028</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3107097</v>
+        <v>3109496</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3193316</v>
+        <v>3188401</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8544870929457927</v>
+        <v>0.8544870929457929</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8428414793559242</v>
+        <v>0.8434922326184212</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8662294992243137</v>
+        <v>0.8648961561534391</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7528</v>
@@ -9632,19 +9632,19 @@
         <v>6029809</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5965939</v>
+        <v>5959920</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6096118</v>
+        <v>6090262</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8429373718435353</v>
+        <v>0.8429373718435355</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8340086736976222</v>
+        <v>0.8331671857641074</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8522069736958729</v>
+        <v>0.8513884256444625</v>
       </c>
     </row>
     <row r="33">
